--- a/inst/dados_premissas/2023/fator_tecnico.xlsx
+++ b/inst/dados_premissas/2023/fator_tecnico.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C49973-FFF0-4A54-8387-0561CC5EAE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E783AF7-C5B6-4FEB-9DDF-73A622427665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$55</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -163,9 +166,6 @@
     <t>ETO</t>
   </si>
   <si>
-    <t>FORCEL</t>
-  </si>
-  <si>
     <t>HIDROPAN</t>
   </si>
   <si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>EQUATORIAL GO</t>
+  </si>
+  <si>
+    <t>PACTO</t>
   </si>
 </sst>
 </file>
@@ -260,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,9 +303,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,26 +338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,26 +373,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +552,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +660,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>1361528</v>
@@ -719,7 +688,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>80411</v>
@@ -1083,7 +1052,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>1137591</v>
@@ -1251,7 +1220,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>3813</v>
@@ -1265,7 +1234,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>11135</v>
@@ -1279,7 +1248,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>1785226</v>
@@ -1293,7 +1262,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>5620</v>
@@ -1307,7 +1276,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>19080</v>
@@ -1321,7 +1290,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1417612</v>
@@ -1335,7 +1304,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>70550</v>
@@ -1349,7 +1318,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>7539</v>
@@ -1362,6 +1331,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/dados_premissas/2023/fator_tecnico.xlsx
+++ b/inst/dados_premissas/2023/fator_tecnico.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E783AF7-C5B6-4FEB-9DDF-73A622427665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE0894-2F15-4F22-92FE-D5DD3CA96BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$51</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>nome_4md</t>
   </si>
@@ -97,9 +110,6 @@
     <t>EAC</t>
   </si>
   <si>
-    <t>EBO</t>
-  </si>
-  <si>
     <t>EDP ES</t>
   </si>
   <si>
@@ -121,9 +131,6 @@
     <t>ELFSM</t>
   </si>
   <si>
-    <t>EMG</t>
-  </si>
-  <si>
     <t>EMS</t>
   </si>
   <si>
@@ -139,9 +146,6 @@
     <t>ENEL SP</t>
   </si>
   <si>
-    <t>ENF</t>
-  </si>
-  <si>
     <t>EPB</t>
   </si>
   <si>
@@ -197,6 +201,9 @@
   </si>
   <si>
     <t>PACTO</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -549,18 +556,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -588,7 +596,7 @@
         <v>0.76182186977717603</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -602,7 +610,7 @@
         <v>0.77854300485665051</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -616,7 +624,7 @@
         <v>0.45951685453665703</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -630,7 +638,7 @@
         <v>0.61000472001716366</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -644,7 +652,7 @@
         <v>0.68218346025093757</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -658,9 +666,9 @@
         <v>0.68586553789780025</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>1361528</v>
@@ -672,7 +680,7 @@
         <v>0.81941569008849391</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -686,9 +694,9 @@
         <v>0.66104416261324583</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>80411</v>
@@ -700,7 +708,7 @@
         <v>0.70135454553383747</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -714,7 +722,7 @@
         <v>0.71085704311398146</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -728,7 +736,7 @@
         <v>0.80271445710857825</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -742,7 +750,7 @@
         <v>0.74489413530507564</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -756,7 +764,7 @@
         <v>0.77667187329725018</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -770,7 +778,7 @@
         <v>0.65330894197429656</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -784,7 +792,7 @@
         <v>0.70739679521697985</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -798,7 +806,7 @@
         <v>0.64012977803454962</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -812,7 +820,7 @@
         <v>0.57382116697786845</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -826,7 +834,7 @@
         <v>0.65686600082707802</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -840,7 +848,7 @@
         <v>0.68333622484385848</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -854,7 +862,7 @@
         <v>0.71878301288823154</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -868,7 +876,7 @@
         <v>0.54425347361657694</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -882,456 +890,428 @@
         <v>0.79535308929745685</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>105459</v>
+        <v>612458</v>
       </c>
       <c r="C24">
-        <v>148494</v>
+        <v>995754</v>
       </c>
       <c r="D24">
-        <v>0.71019031071962502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.61506958545986257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>612458</v>
+        <v>803821</v>
       </c>
       <c r="C25">
-        <v>995754</v>
+        <v>1248614</v>
       </c>
       <c r="D25">
-        <v>0.61506958545986257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.64377061285553416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>803821</v>
+        <v>3206</v>
       </c>
       <c r="C26">
-        <v>1248614</v>
+        <v>3965</v>
       </c>
       <c r="D26">
-        <v>0.64377061285553416</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.8085750315258512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3206</v>
+        <v>6397</v>
       </c>
       <c r="C27">
-        <v>3965</v>
+        <v>7777</v>
       </c>
       <c r="D27">
-        <v>0.8085750315258512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.82255368393982253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>6397</v>
+        <v>1052965</v>
       </c>
       <c r="C28">
-        <v>7777</v>
+        <v>1546669</v>
       </c>
       <c r="D28">
-        <v>0.82255368393982253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.68079530914500774</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1052965</v>
+        <v>18288</v>
       </c>
       <c r="C29">
-        <v>1546669</v>
+        <v>25391</v>
       </c>
       <c r="D29">
-        <v>0.68079530914500774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.72025520853845848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>18288</v>
+        <v>50326</v>
       </c>
       <c r="C30">
-        <v>25391</v>
+        <v>89093</v>
       </c>
       <c r="D30">
-        <v>0.72025520853845848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.5648704163065561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>50326</v>
+        <v>460584</v>
       </c>
       <c r="C31">
-        <v>89093</v>
+        <v>708626</v>
       </c>
       <c r="D31">
-        <v>0.5648704163065561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.64996768394047066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>184956</v>
+        <v>598887</v>
       </c>
       <c r="C32">
-        <v>293219</v>
+        <v>904565</v>
       </c>
       <c r="D32">
-        <v>0.6307776781177209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.66207182457866487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>460584</v>
+        <v>1610623</v>
       </c>
       <c r="C33">
-        <v>708626</v>
+        <v>2343987</v>
       </c>
       <c r="D33">
-        <v>0.64996768394047066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.6871296641150314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>1137591</v>
+      </c>
+      <c r="C34">
+        <v>1872039</v>
+      </c>
+      <c r="D34">
+        <v>0.60767484010749773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>598887</v>
-      </c>
-      <c r="C34">
-        <v>904565</v>
-      </c>
-      <c r="D34">
-        <v>0.66207182457866487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1285300</v>
+      </c>
+      <c r="C35">
+        <v>1858874</v>
+      </c>
+      <c r="D35">
+        <v>0.69144008684827485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>1610623</v>
-      </c>
-      <c r="C35">
-        <v>2343987</v>
-      </c>
-      <c r="D35">
-        <v>0.6871296641150314</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
       <c r="B36">
-        <v>1137591</v>
+        <v>2655293</v>
       </c>
       <c r="C36">
-        <v>1872039</v>
+        <v>5152582</v>
       </c>
       <c r="D36">
-        <v>0.60767484010749773</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.51533250708091594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>1285300</v>
+        <v>595690</v>
       </c>
       <c r="C37">
-        <v>1858874</v>
+        <v>859307</v>
       </c>
       <c r="D37">
-        <v>0.69144008684827485</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.69322139817317907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>2655293</v>
+        <v>1433574</v>
       </c>
       <c r="C38">
-        <v>5152582</v>
+        <v>1862814</v>
       </c>
       <c r="D38">
-        <v>0.51533250708091594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.76957441805784155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>34907</v>
+        <v>667267</v>
       </c>
       <c r="C39">
-        <v>61000</v>
+        <v>832630</v>
       </c>
       <c r="D39">
-        <v>0.5722459016393443</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.80139677888137584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>624668</v>
+        <v>315275</v>
       </c>
       <c r="C40">
-        <v>898290</v>
+        <v>451368</v>
       </c>
       <c r="D40">
-        <v>0.69539680949359339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.69848770847733999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>595690</v>
+        <v>329804</v>
       </c>
       <c r="C41">
-        <v>859307</v>
+        <v>475458</v>
       </c>
       <c r="D41">
-        <v>0.69322139817317907</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.69365538070660293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>1433574</v>
+        <v>367731</v>
       </c>
       <c r="C42">
-        <v>1862814</v>
+        <v>539592</v>
       </c>
       <c r="D42">
-        <v>0.76957441805784155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.68149824311702178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>667267</v>
+        <v>275325</v>
       </c>
       <c r="C43">
-        <v>832630</v>
+        <v>401745</v>
       </c>
       <c r="D43">
-        <v>0.80139677888137584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.68532277937497665</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>315275</v>
+        <v>3813</v>
       </c>
       <c r="C44">
-        <v>451368</v>
+        <v>5342</v>
       </c>
       <c r="D44">
-        <v>0.69848770847733999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.71377761138150508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>329804</v>
+        <v>11135</v>
       </c>
       <c r="C45">
-        <v>475458</v>
+        <v>15576</v>
       </c>
       <c r="D45">
-        <v>0.69365538070660293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.71488186954288646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>367731</v>
+        <v>1785226</v>
       </c>
       <c r="C46">
-        <v>539592</v>
+        <v>3136483</v>
       </c>
       <c r="D46">
-        <v>0.68149824311702178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.56918083088605931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>275325</v>
+        <v>5620</v>
       </c>
       <c r="C47">
-        <v>401745</v>
+        <v>8386</v>
       </c>
       <c r="D47">
-        <v>0.68532277937497665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.67016455998092062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>3813</v>
+        <v>19080</v>
       </c>
       <c r="C48">
-        <v>5342</v>
+        <v>24654</v>
       </c>
       <c r="D48">
-        <v>0.71377761138150508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.77391092723290333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>11135</v>
+        <v>1417612</v>
       </c>
       <c r="C49">
-        <v>15576</v>
+        <v>1985410</v>
       </c>
       <c r="D49">
-        <v>0.71488186954288646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.71401473751013644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>1785226</v>
+        <v>70550</v>
       </c>
       <c r="C50">
-        <v>3136483</v>
+        <v>89489</v>
       </c>
       <c r="D50">
-        <v>0.56918083088605931</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.78836505045312832</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>5620</v>
+        <v>7539</v>
       </c>
       <c r="C51">
-        <v>8386</v>
+        <v>9517</v>
       </c>
       <c r="D51">
-        <v>0.67016455998092062</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.79216139539770936</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>19080</v>
+        <v>219863</v>
       </c>
       <c r="C52">
-        <v>24654</v>
+        <v>354219</v>
       </c>
       <c r="D52">
-        <v>0.77391092723290333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.62069792981178307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B53">
-        <v>1417612</v>
+        <v>730127</v>
       </c>
       <c r="C53">
-        <v>1985410</v>
+        <v>1046784</v>
       </c>
       <c r="D53">
-        <v>0.71401473751013644</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>70550</v>
-      </c>
-      <c r="C54">
-        <v>89489</v>
-      </c>
-      <c r="D54">
-        <v>0.78836505045312832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>7539</v>
-      </c>
-      <c r="C55">
-        <v>9517</v>
-      </c>
-      <c r="D55">
-        <v>0.79216139539770936</v>
+        <v>0.69749537631450231</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>